--- a/training/output/LRSADTLM/T/T1_T0.xlsx
+++ b/training/output/LRSADTLM/T/T1_T0.xlsx
@@ -447,802 +447,802 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7875</v>
+        <v>0.8975</v>
       </c>
       <c r="B2" t="n">
-        <v>2.022336564064026</v>
+        <v>1.863393239974976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9725</v>
       </c>
       <c r="B3" t="n">
-        <v>1.631059122085571</v>
+        <v>1.606450033187866</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9225</v>
+        <v>0.9775</v>
       </c>
       <c r="B4" t="n">
-        <v>1.543427810668945</v>
+        <v>1.517094345092773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="B5" t="n">
-        <v>1.543190402984619</v>
+        <v>1.527621240615845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9825</v>
       </c>
       <c r="B6" t="n">
-        <v>1.50952220916748</v>
+        <v>1.477053217887878</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9575</v>
+        <v>0.9725</v>
       </c>
       <c r="B7" t="n">
-        <v>1.433939256668091</v>
+        <v>1.43650092124939</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.95</v>
+        <v>0.9725</v>
       </c>
       <c r="B8" t="n">
-        <v>1.474422607421875</v>
+        <v>1.461698317527771</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9375</v>
+        <v>0.98</v>
       </c>
       <c r="B9" t="n">
-        <v>1.451804504394531</v>
+        <v>1.449982857704163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.965</v>
+        <v>0.985</v>
       </c>
       <c r="B10" t="n">
-        <v>1.464657101631164</v>
+        <v>1.440550365447998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.915</v>
+        <v>0.985</v>
       </c>
       <c r="B11" t="n">
-        <v>1.422788887023926</v>
+        <v>1.422438340187073</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9575</v>
+        <v>0.9825</v>
       </c>
       <c r="B12" t="n">
-        <v>1.416908502578735</v>
+        <v>1.425072665214539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.975</v>
+        <v>0.9825</v>
       </c>
       <c r="B13" t="n">
-        <v>1.411361079216003</v>
+        <v>1.418436026573181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9775</v>
+        <v>0.9825</v>
       </c>
       <c r="B14" t="n">
-        <v>1.407306079864502</v>
+        <v>1.412897005081177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.975</v>
+        <v>0.98</v>
       </c>
       <c r="B15" t="n">
-        <v>1.40792661190033</v>
+        <v>1.414507536888123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9675</v>
+        <v>0.9825</v>
       </c>
       <c r="B16" t="n">
-        <v>1.414366512298584</v>
+        <v>1.431941862106323</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9275</v>
+        <v>0.975</v>
       </c>
       <c r="B17" t="n">
-        <v>1.414646143913269</v>
+        <v>1.414065885543823</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.965</v>
+        <v>0.975</v>
       </c>
       <c r="B18" t="n">
-        <v>1.428382124900818</v>
+        <v>1.410456433296204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9675</v>
+        <v>0.9775</v>
       </c>
       <c r="B19" t="n">
-        <v>1.420614314079285</v>
+        <v>1.413446130752563</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9425</v>
+        <v>0.9725</v>
       </c>
       <c r="B20" t="n">
-        <v>1.426409912109375</v>
+        <v>1.414061436653137</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9325</v>
+        <v>0.9775</v>
       </c>
       <c r="B21" t="n">
-        <v>1.417106351852417</v>
+        <v>1.419206204414368</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9725</v>
+        <v>0.98</v>
       </c>
       <c r="B22" t="n">
-        <v>1.404163761138916</v>
+        <v>1.405694198608398</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9075</v>
+        <v>0.97</v>
       </c>
       <c r="B23" t="n">
-        <v>1.589220943450928</v>
+        <v>1.42106062412262</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.96</v>
+        <v>0.9775</v>
       </c>
       <c r="B24" t="n">
-        <v>1.423521690368652</v>
+        <v>1.403444037437439</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9725</v>
+        <v>0.98</v>
       </c>
       <c r="B25" t="n">
-        <v>1.447853536605835</v>
+        <v>1.429964609146118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.97</v>
+        <v>0.9875</v>
       </c>
       <c r="B26" t="n">
-        <v>1.405974435806274</v>
+        <v>1.405128350257874</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9475</v>
+        <v>0.9825</v>
       </c>
       <c r="B27" t="n">
-        <v>1.418854508399963</v>
+        <v>1.41116277217865</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9875</v>
       </c>
       <c r="B28" t="n">
-        <v>1.403893251419067</v>
+        <v>1.401723523139954</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.955</v>
+        <v>0.9825</v>
       </c>
       <c r="B29" t="n">
-        <v>1.433383255004883</v>
+        <v>1.410481595993042</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9625</v>
+        <v>0.985</v>
       </c>
       <c r="B30" t="n">
-        <v>1.425482096672058</v>
+        <v>1.403599076271057</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.955</v>
+        <v>0.985</v>
       </c>
       <c r="B31" t="n">
-        <v>1.398845710754395</v>
+        <v>1.400234055519104</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9475</v>
+        <v>0.985</v>
       </c>
       <c r="B32" t="n">
-        <v>1.404654598236084</v>
+        <v>1.397685775756836</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9575</v>
+        <v>0.985</v>
       </c>
       <c r="B33" t="n">
-        <v>1.401237378120422</v>
+        <v>1.39803840637207</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9675</v>
+        <v>0.985</v>
       </c>
       <c r="B34" t="n">
-        <v>1.407405881881714</v>
+        <v>1.39979932308197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.965</v>
+        <v>0.985</v>
       </c>
       <c r="B35" t="n">
-        <v>1.395327987670898</v>
+        <v>1.395525779724121</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.965</v>
+        <v>0.985</v>
       </c>
       <c r="B36" t="n">
-        <v>1.401283836364746</v>
+        <v>1.399805073738098</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9675</v>
+        <v>0.9825</v>
       </c>
       <c r="B37" t="n">
-        <v>1.396320466995239</v>
+        <v>1.397278723716736</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9475</v>
+        <v>0.9775</v>
       </c>
       <c r="B38" t="n">
-        <v>1.409503040313721</v>
+        <v>1.412122097015381</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.93</v>
+        <v>0.9725</v>
       </c>
       <c r="B39" t="n">
-        <v>1.396030511856079</v>
+        <v>1.399298763275147</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9625</v>
+        <v>0.9775</v>
       </c>
       <c r="B40" t="n">
-        <v>1.411267080307007</v>
+        <v>1.419180445671081</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9725</v>
+        <v>0.98</v>
       </c>
       <c r="B41" t="n">
-        <v>1.4054172706604</v>
+        <v>1.399246773719788</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
       <c r="B42" t="n">
-        <v>1.393162741661072</v>
+        <v>1.39260814666748</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.975</v>
+        <v>0.98</v>
       </c>
       <c r="B43" t="n">
-        <v>1.410391330718994</v>
+        <v>1.401372265815735</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.945</v>
+        <v>0.98</v>
       </c>
       <c r="B44" t="n">
-        <v>1.402858633995056</v>
+        <v>1.401636524200439</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="B45" t="n">
-        <v>1.445100030899048</v>
+        <v>1.399054436683655</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9425</v>
+        <v>0.98</v>
       </c>
       <c r="B46" t="n">
-        <v>1.400968556404114</v>
+        <v>1.397533431053162</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9425</v>
+        <v>0.98</v>
       </c>
       <c r="B47" t="n">
-        <v>1.397109231948853</v>
+        <v>1.395634346008301</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="B48" t="n">
-        <v>1.400124263763428</v>
+        <v>1.397788825035095</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="B49" t="n">
-        <v>1.403700847625732</v>
+        <v>1.395889534950256</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="B50" t="n">
-        <v>1.399181041717529</v>
+        <v>1.395753235816956</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9025</v>
+        <v>0.98</v>
       </c>
       <c r="B51" t="n">
-        <v>1.410793642997742</v>
+        <v>1.398639879226685</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.905</v>
+        <v>0.9775</v>
       </c>
       <c r="B52" t="n">
-        <v>1.410191740989685</v>
+        <v>1.395806660652161</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9225</v>
+        <v>0.98</v>
       </c>
       <c r="B53" t="n">
-        <v>1.400906038284302</v>
+        <v>1.399379529953003</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9175</v>
+        <v>0.98</v>
       </c>
       <c r="B54" t="n">
-        <v>1.394112915992737</v>
+        <v>1.392092900276184</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.91</v>
+        <v>0.9825</v>
       </c>
       <c r="B55" t="n">
-        <v>1.39387885093689</v>
+        <v>1.393086295127869</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.905</v>
+        <v>0.9825</v>
       </c>
       <c r="B56" t="n">
-        <v>1.393062100410462</v>
+        <v>1.393289914131165</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9225</v>
+        <v>0.98</v>
       </c>
       <c r="B57" t="n">
-        <v>1.393222436904907</v>
+        <v>1.39369562625885</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.925</v>
+        <v>0.98</v>
       </c>
       <c r="B58" t="n">
-        <v>1.391750903129578</v>
+        <v>1.392228446006775</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9225</v>
+        <v>0.98</v>
       </c>
       <c r="B59" t="n">
-        <v>1.392754926681518</v>
+        <v>1.393584580421448</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.91</v>
+        <v>0.9675</v>
       </c>
       <c r="B60" t="n">
-        <v>1.399027924537659</v>
+        <v>1.398591437339783</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9325</v>
+        <v>0.97</v>
       </c>
       <c r="B61" t="n">
-        <v>1.397465038299561</v>
+        <v>1.399017777442932</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9725</v>
       </c>
       <c r="B62" t="n">
-        <v>1.394117822647095</v>
+        <v>1.394194955825806</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.95</v>
+        <v>0.9825</v>
       </c>
       <c r="B63" t="n">
-        <v>1.391978268623352</v>
+        <v>1.393329796791077</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.95</v>
+        <v>0.9825</v>
       </c>
       <c r="B64" t="n">
-        <v>1.39038553237915</v>
+        <v>1.390713791847229</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.95</v>
+        <v>0.9825</v>
       </c>
       <c r="B65" t="n">
-        <v>1.393012647628784</v>
+        <v>1.394317727088928</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9525</v>
+        <v>0.9825</v>
       </c>
       <c r="B66" t="n">
-        <v>1.390342082977295</v>
+        <v>1.391566510200501</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.945</v>
+        <v>0.9825</v>
       </c>
       <c r="B67" t="n">
-        <v>1.393820323944092</v>
+        <v>1.392361650466919</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9825</v>
       </c>
       <c r="B68" t="n">
-        <v>1.392162656784058</v>
+        <v>1.39257493019104</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9425</v>
+        <v>0.9825</v>
       </c>
       <c r="B69" t="n">
-        <v>1.389796090126038</v>
+        <v>1.390095801353455</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.945</v>
+        <v>0.9825</v>
       </c>
       <c r="B70" t="n">
-        <v>1.390440435409546</v>
+        <v>1.390914487838745</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9425</v>
+        <v>0.9825</v>
       </c>
       <c r="B71" t="n">
-        <v>1.390403161048889</v>
+        <v>1.390780544281006</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.95</v>
+        <v>0.9825</v>
       </c>
       <c r="B72" t="n">
-        <v>1.390223546028137</v>
+        <v>1.390815124511719</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9825</v>
       </c>
       <c r="B73" t="n">
-        <v>1.397048969268799</v>
+        <v>1.398340654373169</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9225</v>
+        <v>0.9825</v>
       </c>
       <c r="B74" t="n">
-        <v>1.391036171913147</v>
+        <v>1.391249217987061</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9325</v>
+        <v>0.9825</v>
       </c>
       <c r="B75" t="n">
-        <v>1.390562381744385</v>
+        <v>1.392099099159241</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9475</v>
+        <v>0.9825</v>
       </c>
       <c r="B76" t="n">
-        <v>1.390250458717346</v>
+        <v>1.390074076652527</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9525</v>
+        <v>0.9825</v>
       </c>
       <c r="B77" t="n">
-        <v>1.389370818138123</v>
+        <v>1.389581317901611</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9525</v>
+        <v>0.9825</v>
       </c>
       <c r="B78" t="n">
-        <v>1.390158839225769</v>
+        <v>1.390568170547485</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9525</v>
+        <v>0.9825</v>
       </c>
       <c r="B79" t="n">
-        <v>1.389983878135681</v>
+        <v>1.39076530456543</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.955</v>
+        <v>0.9825</v>
       </c>
       <c r="B80" t="n">
-        <v>1.390626468658447</v>
+        <v>1.391692776679993</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9525</v>
+        <v>0.9825</v>
       </c>
       <c r="B81" t="n">
-        <v>1.390546960830688</v>
+        <v>1.391315789222717</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9525</v>
+        <v>0.9825</v>
       </c>
       <c r="B82" t="n">
-        <v>1.39007098197937</v>
+        <v>1.3907319688797</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.955</v>
+        <v>0.9825</v>
       </c>
       <c r="B83" t="n">
-        <v>1.39006411075592</v>
+        <v>1.390348243713379</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.955</v>
+        <v>0.9825</v>
       </c>
       <c r="B84" t="n">
-        <v>1.388873205184937</v>
+        <v>1.389241232872009</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.955</v>
+        <v>0.98</v>
       </c>
       <c r="B85" t="n">
-        <v>1.390590748786926</v>
+        <v>1.391205043792725</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="B86" t="n">
-        <v>1.401518368721008</v>
+        <v>1.391366457939148</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9275</v>
+        <v>0.98</v>
       </c>
       <c r="B87" t="n">
-        <v>1.398478922843933</v>
+        <v>1.390909609794617</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9625</v>
+        <v>0.9825</v>
       </c>
       <c r="B88" t="n">
-        <v>1.402752389907837</v>
+        <v>1.400196294784546</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9575</v>
+        <v>0.9875</v>
       </c>
       <c r="B89" t="n">
-        <v>1.390677309036255</v>
+        <v>1.391780948638916</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.955</v>
+        <v>0.9825</v>
       </c>
       <c r="B90" t="n">
-        <v>1.389615745544434</v>
+        <v>1.389857969284058</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9575</v>
+        <v>0.9825</v>
       </c>
       <c r="B91" t="n">
-        <v>1.390903534889221</v>
+        <v>1.391237072944641</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9575</v>
+        <v>0.9825</v>
       </c>
       <c r="B92" t="n">
-        <v>1.389454889297485</v>
+        <v>1.389843826293945</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9575</v>
+        <v>0.9825</v>
       </c>
       <c r="B93" t="n">
-        <v>1.396216940879822</v>
+        <v>1.396553649902344</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.95</v>
+        <v>0.9925</v>
       </c>
       <c r="B94" t="n">
-        <v>1.393483195304871</v>
+        <v>1.397722043991089</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9575</v>
+        <v>0.9925</v>
       </c>
       <c r="B95" t="n">
-        <v>1.389707317352295</v>
+        <v>1.389903211593628</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.96</v>
+        <v>0.9875</v>
       </c>
       <c r="B96" t="n">
-        <v>1.39145565032959</v>
+        <v>1.392132525444031</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8975</v>
+        <v>0.9825</v>
       </c>
       <c r="B97" t="n">
-        <v>1.396089887619019</v>
+        <v>1.393900127410889</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.835</v>
+        <v>0.9825</v>
       </c>
       <c r="B98" t="n">
-        <v>1.393753952980042</v>
+        <v>1.392686018943787</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.875</v>
+        <v>0.9825</v>
       </c>
       <c r="B99" t="n">
-        <v>1.392557334899902</v>
+        <v>1.392447214126587</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.875</v>
+        <v>0.9825</v>
       </c>
       <c r="B100" t="n">
-        <v>1.389472546577454</v>
+        <v>1.389527382850647</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8825</v>
+        <v>0.9825</v>
       </c>
       <c r="B101" t="n">
-        <v>1.390579390525818</v>
+        <v>1.390406303405762</v>
       </c>
     </row>
   </sheetData>

--- a/training/output/LRSADTLM/T/T1_T0.xlsx
+++ b/training/output/LRSADTLM/T/T1_T0.xlsx
@@ -447,34 +447,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8975</v>
+        <v>0.915</v>
       </c>
       <c r="B2" t="n">
-        <v>1.863393239974976</v>
+        <v>1.78521279335022</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9725</v>
+        <v>0.9775</v>
       </c>
       <c r="B3" t="n">
-        <v>1.606450033187866</v>
+        <v>1.578320579528809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9775</v>
+        <v>0.97</v>
       </c>
       <c r="B4" t="n">
-        <v>1.517094345092773</v>
+        <v>1.506057739257812</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.98</v>
+        <v>0.9875</v>
       </c>
       <c r="B5" t="n">
-        <v>1.527621240615845</v>
+        <v>1.514018530845642</v>
       </c>
     </row>
     <row r="6">
@@ -482,23 +482,23 @@
         <v>0.9825</v>
       </c>
       <c r="B6" t="n">
-        <v>1.477053217887878</v>
+        <v>1.469953246116638</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9725</v>
+        <v>0.985</v>
       </c>
       <c r="B7" t="n">
-        <v>1.43650092124939</v>
+        <v>1.43348753452301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9725</v>
+        <v>0.98</v>
       </c>
       <c r="B8" t="n">
-        <v>1.461698317527771</v>
+        <v>1.456958975791931</v>
       </c>
     </row>
     <row r="9">
@@ -506,135 +506,135 @@
         <v>0.98</v>
       </c>
       <c r="B9" t="n">
-        <v>1.449982857704163</v>
+        <v>1.44681583404541</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.985</v>
+        <v>0.9825</v>
       </c>
       <c r="B10" t="n">
-        <v>1.440550365447998</v>
+        <v>1.442796010971069</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.985</v>
+        <v>0.98</v>
       </c>
       <c r="B11" t="n">
-        <v>1.422438340187073</v>
+        <v>1.420608057975769</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9825</v>
+        <v>0.98</v>
       </c>
       <c r="B12" t="n">
-        <v>1.425072665214539</v>
+        <v>1.423955492973328</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B13" t="n">
-        <v>1.418436026573181</v>
+        <v>1.416514902114868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9825</v>
+        <v>0.985</v>
       </c>
       <c r="B14" t="n">
-        <v>1.412897005081177</v>
+        <v>1.411410851478577</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.98</v>
+        <v>0.985</v>
       </c>
       <c r="B15" t="n">
-        <v>1.414507536888123</v>
+        <v>1.419912519454956</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B16" t="n">
-        <v>1.431941862106323</v>
+        <v>1.439811520576477</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.975</v>
+        <v>0.9725</v>
       </c>
       <c r="B17" t="n">
-        <v>1.414065885543823</v>
+        <v>1.413428225517273</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.975</v>
+        <v>0.985</v>
       </c>
       <c r="B18" t="n">
-        <v>1.410456433296204</v>
+        <v>1.411923341751099</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9775</v>
+        <v>0.995</v>
       </c>
       <c r="B19" t="n">
-        <v>1.413446130752563</v>
+        <v>1.412618989944458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9725</v>
+        <v>0.9875</v>
       </c>
       <c r="B20" t="n">
-        <v>1.414061436653137</v>
+        <v>1.412274389266968</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9775</v>
+        <v>0.99</v>
       </c>
       <c r="B21" t="n">
-        <v>1.419206204414368</v>
+        <v>1.416186556816101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="B22" t="n">
-        <v>1.405694198608398</v>
+        <v>1.404560933113098</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.97</v>
+        <v>0.9825</v>
       </c>
       <c r="B23" t="n">
-        <v>1.42106062412262</v>
+        <v>1.417319355010986</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9775</v>
+        <v>0.98</v>
       </c>
       <c r="B24" t="n">
-        <v>1.403444037437439</v>
+        <v>1.403509287834168</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.98</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>1.429964609146118</v>
+        <v>1.427205677032471</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.9875</v>
       </c>
       <c r="B26" t="n">
-        <v>1.405128350257874</v>
+        <v>1.403915548324585</v>
       </c>
     </row>
     <row r="27">
@@ -650,63 +650,63 @@
         <v>0.9825</v>
       </c>
       <c r="B27" t="n">
-        <v>1.41116277217865</v>
+        <v>1.41251645565033</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9875</v>
+        <v>0.985</v>
       </c>
       <c r="B28" t="n">
-        <v>1.401723523139954</v>
+        <v>1.402551999092102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B29" t="n">
-        <v>1.410481595993042</v>
+        <v>1.414403886795044</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.985</v>
+        <v>0.9925</v>
       </c>
       <c r="B30" t="n">
-        <v>1.403599076271057</v>
+        <v>1.40571907043457</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.985</v>
+        <v>0.98</v>
       </c>
       <c r="B31" t="n">
-        <v>1.400234055519104</v>
+        <v>1.404855079650879</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.985</v>
+        <v>0.98</v>
       </c>
       <c r="B32" t="n">
-        <v>1.397685775756836</v>
+        <v>1.397880411148071</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.985</v>
+        <v>0.9775</v>
       </c>
       <c r="B33" t="n">
-        <v>1.39803840637207</v>
+        <v>1.397332491874695</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.985</v>
+        <v>0.98</v>
       </c>
       <c r="B34" t="n">
-        <v>1.39979932308197</v>
+        <v>1.400419135093689</v>
       </c>
     </row>
     <row r="35">
@@ -714,87 +714,87 @@
         <v>0.985</v>
       </c>
       <c r="B35" t="n">
-        <v>1.395525779724121</v>
+        <v>1.395375671386719</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.985</v>
+        <v>0.9825</v>
       </c>
       <c r="B36" t="n">
-        <v>1.399805073738098</v>
+        <v>1.397931923866272</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9825</v>
+        <v>0.99</v>
       </c>
       <c r="B37" t="n">
-        <v>1.397278723716736</v>
+        <v>1.397328948974609</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9775</v>
+        <v>0.9875</v>
       </c>
       <c r="B38" t="n">
-        <v>1.412122097015381</v>
+        <v>1.414560370445251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9725</v>
+        <v>0.99</v>
       </c>
       <c r="B39" t="n">
-        <v>1.399298763275147</v>
+        <v>1.396030211448669</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9775</v>
+        <v>0.99</v>
       </c>
       <c r="B40" t="n">
-        <v>1.419180445671081</v>
+        <v>1.414917340278625</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.98</v>
+        <v>0.985</v>
       </c>
       <c r="B41" t="n">
-        <v>1.399246773719788</v>
+        <v>1.3984752368927</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.98</v>
+        <v>0.985</v>
       </c>
       <c r="B42" t="n">
-        <v>1.39260814666748</v>
+        <v>1.391965613365173</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.98</v>
+        <v>0.985</v>
       </c>
       <c r="B43" t="n">
-        <v>1.401372265815735</v>
+        <v>1.401247525215149</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.98</v>
+        <v>0.985</v>
       </c>
       <c r="B44" t="n">
-        <v>1.401636524200439</v>
+        <v>1.399752588272095</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.98</v>
+        <v>0.9825</v>
       </c>
       <c r="B45" t="n">
-        <v>1.399054436683655</v>
+        <v>1.400194554328918</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>0.98</v>
       </c>
       <c r="B46" t="n">
-        <v>1.397533431053162</v>
+        <v>1.396392731666565</v>
       </c>
     </row>
     <row r="47">
@@ -810,79 +810,79 @@
         <v>0.98</v>
       </c>
       <c r="B47" t="n">
-        <v>1.395634346008301</v>
+        <v>1.395555367469788</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.98</v>
+        <v>0.985</v>
       </c>
       <c r="B48" t="n">
-        <v>1.397788825035095</v>
+        <v>1.397853994369507</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.98</v>
+        <v>0.9825</v>
       </c>
       <c r="B49" t="n">
-        <v>1.395889534950256</v>
+        <v>1.395419788360596</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.98</v>
+        <v>0.9825</v>
       </c>
       <c r="B50" t="n">
-        <v>1.395753235816956</v>
+        <v>1.396455965042114</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="B51" t="n">
-        <v>1.398639879226685</v>
+        <v>1.398932385444641</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9775</v>
+        <v>0.97</v>
       </c>
       <c r="B52" t="n">
-        <v>1.395806660652161</v>
+        <v>1.395075807571411</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="B53" t="n">
-        <v>1.399379529953003</v>
+        <v>1.398014740943909</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.98</v>
+        <v>0.975</v>
       </c>
       <c r="B54" t="n">
-        <v>1.392092900276184</v>
+        <v>1.392158207893372</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9825</v>
+        <v>0.975</v>
       </c>
       <c r="B55" t="n">
-        <v>1.393086295127869</v>
+        <v>1.392512741088867</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9825</v>
+        <v>0.9775</v>
       </c>
       <c r="B56" t="n">
-        <v>1.393289914131165</v>
+        <v>1.3929070520401</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>0.98</v>
       </c>
       <c r="B57" t="n">
-        <v>1.39369562625885</v>
+        <v>1.392990622520447</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>0.98</v>
       </c>
       <c r="B58" t="n">
-        <v>1.392228446006775</v>
+        <v>1.391932239532471</v>
       </c>
     </row>
     <row r="59">
@@ -906,23 +906,23 @@
         <v>0.98</v>
       </c>
       <c r="B59" t="n">
-        <v>1.393584580421448</v>
+        <v>1.393168721199036</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9675</v>
+        <v>0.9575</v>
       </c>
       <c r="B60" t="n">
-        <v>1.398591437339783</v>
+        <v>1.397881011962891</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.97</v>
+        <v>0.9625</v>
       </c>
       <c r="B61" t="n">
-        <v>1.399017777442932</v>
+        <v>1.399195256233215</v>
       </c>
     </row>
     <row r="62">
@@ -930,87 +930,87 @@
         <v>0.9725</v>
       </c>
       <c r="B62" t="n">
-        <v>1.394194955825806</v>
+        <v>1.400662512779236</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9825</v>
+        <v>0.995</v>
       </c>
       <c r="B63" t="n">
-        <v>1.393329796791077</v>
+        <v>1.393939914703369</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9825</v>
+        <v>0.9925</v>
       </c>
       <c r="B64" t="n">
-        <v>1.390713791847229</v>
+        <v>1.39122700214386</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B65" t="n">
-        <v>1.394317727088928</v>
+        <v>1.393475708961487</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B66" t="n">
-        <v>1.391566510200501</v>
+        <v>1.391767067909241</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B67" t="n">
-        <v>1.392361650466919</v>
+        <v>1.392196464538574</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B68" t="n">
-        <v>1.39257493019104</v>
+        <v>1.392490186691284</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B69" t="n">
-        <v>1.390095801353455</v>
+        <v>1.390114774703979</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B70" t="n">
-        <v>1.390914487838745</v>
+        <v>1.391612238883972</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9825</v>
+        <v>0.985</v>
       </c>
       <c r="B71" t="n">
-        <v>1.390780544281006</v>
+        <v>1.39080461025238</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9825</v>
+        <v>0.98</v>
       </c>
       <c r="B72" t="n">
-        <v>1.390815124511719</v>
+        <v>1.39078565120697</v>
       </c>
     </row>
     <row r="73">
@@ -1018,143 +1018,143 @@
         <v>0.9825</v>
       </c>
       <c r="B73" t="n">
-        <v>1.398340654373169</v>
+        <v>1.400842170715332</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9825</v>
+        <v>0.985</v>
       </c>
       <c r="B74" t="n">
-        <v>1.391249217987061</v>
+        <v>1.391428408622742</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9825</v>
+        <v>0.985</v>
       </c>
       <c r="B75" t="n">
-        <v>1.392099099159241</v>
+        <v>1.392577023506165</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9825</v>
+        <v>0.985</v>
       </c>
       <c r="B76" t="n">
-        <v>1.390074076652527</v>
+        <v>1.390269527435303</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B77" t="n">
-        <v>1.389581317901611</v>
+        <v>1.389591455459595</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B78" t="n">
-        <v>1.390568170547485</v>
+        <v>1.39056170463562</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B79" t="n">
-        <v>1.39076530456543</v>
+        <v>1.390826940536499</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B80" t="n">
-        <v>1.391692776679993</v>
+        <v>1.391552958488464</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B81" t="n">
-        <v>1.391315789222717</v>
+        <v>1.391048831939697</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B82" t="n">
-        <v>1.3907319688797</v>
+        <v>1.390617985725403</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9825</v>
+        <v>0.985</v>
       </c>
       <c r="B83" t="n">
-        <v>1.390348243713379</v>
+        <v>1.391329126358032</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9825</v>
+        <v>0.98</v>
       </c>
       <c r="B84" t="n">
-        <v>1.389241232872009</v>
+        <v>1.389364123344421</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.98</v>
+        <v>0.975</v>
       </c>
       <c r="B85" t="n">
-        <v>1.391205043792725</v>
+        <v>1.395177717208862</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.98</v>
+        <v>0.975</v>
       </c>
       <c r="B86" t="n">
-        <v>1.391366457939148</v>
+        <v>1.392316226959228</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.98</v>
+        <v>0.9775</v>
       </c>
       <c r="B87" t="n">
-        <v>1.390909609794617</v>
+        <v>1.391323547363281</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B88" t="n">
-        <v>1.400196294784546</v>
+        <v>1.399548530578613</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9875</v>
+        <v>0.985</v>
       </c>
       <c r="B89" t="n">
-        <v>1.391780948638916</v>
+        <v>1.391148099899292</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9825</v>
+        <v>0.985</v>
       </c>
       <c r="B90" t="n">
-        <v>1.389857969284058</v>
+        <v>1.389780721664429</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>0.9825</v>
       </c>
       <c r="B91" t="n">
-        <v>1.391237072944641</v>
+        <v>1.391209268569946</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>0.9825</v>
       </c>
       <c r="B92" t="n">
-        <v>1.389843826293945</v>
+        <v>1.389779806137085</v>
       </c>
     </row>
     <row r="93">
@@ -1178,71 +1178,71 @@
         <v>0.9825</v>
       </c>
       <c r="B93" t="n">
-        <v>1.396553649902344</v>
+        <v>1.39250011920929</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9925</v>
+        <v>0.99</v>
       </c>
       <c r="B94" t="n">
-        <v>1.397722043991089</v>
+        <v>1.391959309577942</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9925</v>
+        <v>0.99</v>
       </c>
       <c r="B95" t="n">
-        <v>1.389903211593628</v>
+        <v>1.389448471069336</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9875</v>
+        <v>0.99</v>
       </c>
       <c r="B96" t="n">
-        <v>1.392132525444031</v>
+        <v>1.391755714416504</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B97" t="n">
-        <v>1.393900127410889</v>
+        <v>1.391197347640991</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9825</v>
+        <v>0.9875</v>
       </c>
       <c r="B98" t="n">
-        <v>1.392686018943787</v>
+        <v>1.392276768684387</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9825</v>
+        <v>0.985</v>
       </c>
       <c r="B99" t="n">
-        <v>1.392447214126587</v>
+        <v>1.391951022148132</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9825</v>
+        <v>0.985</v>
       </c>
       <c r="B100" t="n">
-        <v>1.389527382850647</v>
+        <v>1.3891761302948</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9825</v>
+        <v>0.985</v>
       </c>
       <c r="B101" t="n">
-        <v>1.390406303405762</v>
+        <v>1.390113863945007</v>
       </c>
     </row>
   </sheetData>
